--- a/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
+++ b/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="153">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -57,51 +57,51 @@
     <t>39</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>37</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -231,84 +231,87 @@
     <t>59</t>
   </si>
   <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>Mutation ALK</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
     <t>Mutation KRAS</t>
   </si>
   <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
     <t>Mutation KEAP1</t>
   </si>
   <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_SMARCA4</t>
   </si>
   <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MET</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>Mutation TSC2</t>
   </si>
   <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Mutation STK11</t>
   </si>
   <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
     <t>Mutation CCNE1</t>
   </si>
   <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
     <t>Amplification BRAF</t>
   </si>
   <si>
@@ -357,6 +360,9 @@
     <t>Mutation TP53</t>
   </si>
   <si>
+    <t>Pattern NF1_and_TP53</t>
+  </si>
+  <si>
     <t>Pattern OR_BRAF</t>
   </si>
   <si>
@@ -444,9 +450,6 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>61</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
   </si>
   <si>
     <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
 </sst>
 </file>
@@ -563,10 +569,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
         <v>10.0</v>
@@ -607,40 +613,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0446750736976944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00491923526845387</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -651,43 +657,43 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.00123870226618732</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07866666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01325905234682338</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0746666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0143329026636419</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -695,16 +701,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.00105828080128529</v>
@@ -713,22 +719,22 @@
         <v>0.00138921505504952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.00673824509440949</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -739,25 +745,25 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00491923526845387</v>
       </c>
       <c r="I6" t="n">
         <v>40.0</v>
@@ -766,13 +772,13 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.072</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -783,25 +789,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>43.0</v>
       </c>
       <c r="E7" t="n">
         <v>6.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.324263384761535</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0148311294556886</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>40.0</v>
@@ -810,16 +816,16 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.112</v>
+        <v>0.08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01799862820561474</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.106666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0188561808316413</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -830,7 +836,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
         <v>7.0</v>
@@ -857,13 +863,13 @@
         <v>0.060000000000000005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01440164599646191</v>
+        <v>0.012957670877434001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0546666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00421637021355784</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -871,40 +877,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.0410709889037178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0446750736976944</v>
+        <v>0.00200033415174113</v>
       </c>
       <c r="H9" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0204733771008129</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -915,25 +921,25 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0410709889037178</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00200033415174113</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0204733771008129</v>
+        <v>1.62712124846843E-4</v>
       </c>
       <c r="I10" t="n">
         <v>20.0</v>
@@ -942,16 +948,16 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08</v>
+        <v>0.13466666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0</v>
+        <v>0.019321835661585917</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08</v>
+        <v>0.137333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>0.0109769680313142</v>
       </c>
     </row>
     <row r="11">
@@ -959,25 +965,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.134427088373203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0141102321692713</v>
       </c>
       <c r="I11" t="n">
         <v>20.0</v>
@@ -986,16 +992,16 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.096</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.008432740427115675</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0946666666666667</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="12">
@@ -1003,25 +1009,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n">
         <v>4.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00213336241108807</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I12" t="n">
         <v>20.0</v>
@@ -1047,25 +1053,25 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E13" t="n">
         <v>6.0</v>
       </c>
-      <c r="E13" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.0684404828872903</v>
+        <v>0.324263384761535</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0324675324675325</v>
+        <v>0.0148311294556886</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0105146242132543</v>
+        <v>1.76823001441948E-4</v>
       </c>
       <c r="I13" t="n">
         <v>20.0</v>
@@ -1074,16 +1080,16 @@
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01440164599646191</v>
+        <v>0.01513723232526791</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.096</v>
       </c>
       <c r="N13" t="n">
-        <v>0.016629588385662</v>
+        <v>0.0151372323252679</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1100,40 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D14" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.00152971453112426</v>
       </c>
       <c r="G14" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00116550116550117</v>
       </c>
       <c r="H14" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0267470055430696</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.136</v>
+        <v>0.072</v>
       </c>
       <c r="L14" t="n">
-        <v>0.021591036091539766</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M14" t="n">
-        <v>0.144</v>
+        <v>0.08</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0122524877796358</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1138,40 +1144,40 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D15" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.134427088373203</v>
+        <v>0.0684404828872903</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.0324675324675325</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0105146242132543</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.060000000000000005</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0</v>
+        <v>0.012957670877434001</v>
       </c>
       <c r="M15" t="n">
-        <v>0.096</v>
+        <v>0.064</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.0122524877796358</v>
       </c>
     </row>
     <row r="16">
@@ -1182,40 +1188,40 @@
         <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="D16" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="E16" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00152971453112426</v>
+        <v>0.0468811053418156</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00116550116550117</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0267470055430696</v>
+        <v>1.39112680112101E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.072</v>
       </c>
       <c r="L16" t="n">
         <v>0.006885303726590965</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>0.012957670877434</v>
       </c>
     </row>
     <row r="17">
@@ -1223,25 +1229,25 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00123870226618732</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00213336241108807</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.00673824509440948</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -1250,13 +1256,13 @@
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -1267,10 +1273,10 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" t="e">
         <v>#NUM!</v>
@@ -1311,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19" t="e">
         <v>#NUM!</v>
@@ -1355,10 +1361,10 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1399,10 +1405,10 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1443,10 +1449,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1487,10 +1493,10 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1531,10 +1537,10 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1575,10 +1581,10 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1619,10 +1625,10 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1663,10 +1669,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1707,10 +1713,10 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1751,10 +1757,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D29" t="e">
         <v>#NUM!</v>
@@ -1795,7 +1801,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
         <v>78</v>
@@ -1839,10 +1845,10 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1883,10 +1889,10 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1927,10 +1933,10 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1971,10 +1977,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2015,10 +2021,10 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2059,10 +2065,10 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -2103,10 +2109,10 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -2147,10 +2153,10 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -2191,10 +2197,10 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -2235,10 +2241,10 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -2279,10 +2285,10 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -2306,7 +2312,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2323,10 +2329,10 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -2350,7 +2356,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.36</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2367,10 +2373,10 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -2394,7 +2400,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -2411,10 +2417,10 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -2455,10 +2461,10 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -2482,7 +2488,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -2499,10 +2505,10 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2526,7 +2532,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -2543,10 +2549,10 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -2570,7 +2576,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
@@ -2587,10 +2593,10 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -2614,7 +2620,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -2631,10 +2637,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2658,7 +2664,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.22666666666666666</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -2675,11 +2681,11 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
         <v>85</v>
       </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
       </c>
@@ -2702,7 +2708,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.24</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -2719,10 +2725,10 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2746,7 +2752,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.24</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -2763,10 +2769,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2790,7 +2796,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -2807,10 +2813,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -2834,7 +2840,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.28</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -2851,10 +2857,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -2878,7 +2884,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.28</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -2895,10 +2901,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -2939,10 +2945,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -2966,7 +2972,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -2983,10 +2989,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -3010,7 +3016,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.12</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -3027,10 +3033,10 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -3054,7 +3060,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -3071,10 +3077,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -3098,7 +3104,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.38666666666666666</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -3115,10 +3121,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -3142,15 +3148,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N60" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.17333333333333334</v>
       </c>
-      <c r="L60" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M60" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N60" t="e">
+      <c r="L61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N61" t="e">
         <v>#NUM!</v>
       </c>
     </row>
@@ -3170,43 +3220,43 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -3214,10 +3264,10 @@
         <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
         <v>10.0</v>
@@ -3255,43 +3305,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E3" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0446750736976944</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00491923526845387</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -3299,63 +3349,63 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.00123870226618732</v>
       </c>
       <c r="G4" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H4" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>60.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.07866666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01325905234682338</v>
+        <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0706666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00644061188719531</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.00105828080128529</v>
@@ -3364,22 +3414,22 @@
         <v>0.00138921505504952</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0</v>
+        <v>0.00673824509440949</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L5" t="n">
         <v>0.0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3387,28 +3437,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E6" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00491923526845387</v>
       </c>
       <c r="I6" t="n">
         <v>40.0</v>
@@ -3417,13 +3467,13 @@
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04</v>
+        <v>0.072</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3431,28 +3481,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>7.0</v>
+        <v>43.0</v>
       </c>
       <c r="E7" t="n">
         <v>6.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.324263384761535</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0148311294556886</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H7" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I7" t="n">
         <v>40.0</v>
@@ -3461,16 +3511,16 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.112</v>
+        <v>0.08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01799862820561474</v>
+        <v>0.0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.102666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0126491106406735</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -3481,7 +3531,7 @@
         <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" t="n">
         <v>7.0</v>
@@ -3508,54 +3558,54 @@
         <v>0.060000000000000005</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01440164599646191</v>
+        <v>0.012957670877434001</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0573333333333333</v>
+        <v>0.0613333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00899931410280737</v>
+        <v>0.0143329026636419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="E9" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.0410709889037178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0446750736976944</v>
+        <v>0.00200033415174113</v>
       </c>
       <c r="H9" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0204733771008129</v>
       </c>
       <c r="I9" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3563,28 +3613,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" t="n">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0410709889037178</v>
+        <v>0.5</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00200033415174113</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0204733771008129</v>
+        <v>1.62712124846843E-4</v>
       </c>
       <c r="I10" t="n">
         <v>20.0</v>
@@ -3593,42 +3643,42 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08</v>
+        <v>0.13466666666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0</v>
+        <v>0.019321835661585917</v>
       </c>
       <c r="M10" t="n">
-        <v>0.08</v>
+        <v>0.148</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0</v>
+        <v>0.018270937592084</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>19.0</v>
+        <v>9.0</v>
       </c>
       <c r="E11" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.134427088373203</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0141102321692713</v>
       </c>
       <c r="I11" t="n">
         <v>20.0</v>
@@ -3637,13 +3687,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.096</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0</v>
+        <v>0.008432740427115675</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3651,28 +3701,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n">
         <v>4.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00213336241108807</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I12" t="n">
         <v>20.0</v>
@@ -3695,160 +3745,160 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>47.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.324263384761535</v>
       </c>
       <c r="G13" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.0148311294556886</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>1.76823001441948E-4</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04</v>
+        <v>0.10400000000000001</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>0.01513723232526791</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04</v>
+        <v>0.113333333333333</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>0.00942809041582063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D14" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0598910393226066</v>
+        <v>0.00152971453112426</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00246101783766158</v>
+        <v>0.00116550116550117</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0063680118474639</v>
+        <v>0.0267470055430696</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04</v>
+        <v>0.072</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0426666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D15" t="n">
         <v>8.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.0468811053418156</v>
       </c>
       <c r="G15" t="n">
         <v>2.91375291375291E-4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>1.39112680112101E-4</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.136</v>
+        <v>0.072</v>
       </c>
       <c r="L15" t="n">
-        <v>0.021591036091539766</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M15" t="n">
-        <v>0.146666666666667</v>
+        <v>0.0813333333333333</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0140545673785261</v>
+        <v>0.0132590523468234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0</v>
+        <v>47.0</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00196036862130397</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0129183592235879</v>
+        <v>0.0</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -3857,13 +3907,13 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3871,72 +3921,72 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D17" t="n">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.134427088373203</v>
+        <v>0.0598910393226066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00246101783766158</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0063680118474639</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0973333333333333</v>
+        <v>0.0426666666666667</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0126491106406735</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="D18" t="n">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00196036862130397</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0203459696986729</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.197605825003085</v>
+        <v>0.0129183592235879</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3945,13 +3995,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.096</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>0.008432740427115675</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -3959,28 +4009,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D19" t="n">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
       <c r="E19" t="n">
         <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00128063972744154</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0325404793288958</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0450944094779712</v>
+        <v>0.0</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -4003,28 +4053,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="E20" t="n">
         <v>4.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00128063972744154</v>
       </c>
       <c r="G20" t="n">
         <v>0.0325404793288958</v>
       </c>
       <c r="H20" t="n">
-        <v>0.113143280266568</v>
+        <v>0.0450944094779712</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -4047,28 +4097,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
         <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>52.0</v>
+        <v>18.0</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.0325404793288958</v>
       </c>
       <c r="H21" t="n">
-        <v>0.308404294705665</v>
+        <v>0.113143280266568</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -4077,13 +4127,13 @@
         <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N21" t="n">
         <v>0.0</v>
@@ -4091,28 +4141,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D22" t="n">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0034965034965035</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0213969323599224</v>
+        <v>0.308404294705665</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -4121,13 +4171,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -4135,28 +4185,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00152971453112426</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00116550116550117</v>
+        <v>0.00213336241108807</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.00673824509440948</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -4165,13 +4215,13 @@
         <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -4179,28 +4229,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D24" t="n">
-        <v>4.0</v>
+        <v>47.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.196182248573794</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0147413977079652</v>
+        <v>0.0034965034965035</v>
       </c>
       <c r="H24" t="n">
-        <v>0.012501542638529</v>
+        <v>0.0213969323599224</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4209,13 +4259,13 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4223,28 +4273,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
         <v>3.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.196182248573794</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0131118881118881</v>
+        <v>0.0147413977079652</v>
       </c>
       <c r="H25" t="n">
-        <v>0.117860051832655</v>
+        <v>0.012501542638529</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4267,28 +4317,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>111</v>
       </c>
       <c r="D26" t="n">
-        <v>6.0</v>
+        <v>13.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.474187652547842</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0143842024830489</v>
+        <v>0.0131118881118881</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0697806485960066</v>
+        <v>0.117860051832655</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4297,13 +4347,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4314,25 +4364,25 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
         <v>112</v>
       </c>
-      <c r="C27" t="s">
-        <v>111</v>
-      </c>
       <c r="D27" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E27" t="n">
         <v>5.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0189191382300883</v>
+        <v>0.273566479988148</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0318137259550425</v>
+        <v>0.0235786594350109</v>
       </c>
       <c r="H27" t="n">
-        <v>0.149327061964531</v>
+        <v>0.0697806485960066</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4355,28 +4405,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="D28" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00517408124222496</v>
+        <v>0.0160193159689903</v>
       </c>
       <c r="G28" t="n">
-        <v>0.012593280988826</v>
+        <v>0.0316678519127859</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0364309514994447</v>
+        <v>0.179588154621919</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4385,13 +4435,13 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01440164599646191</v>
+        <v>0.0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4399,28 +4449,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" t="n">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="E29" t="n">
         <v>4.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00104629233105653</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G29" t="n">
-        <v>0.00841832157041155</v>
+        <v>0.0235786594350109</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0143502406516105</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4432,7 +4482,7 @@
         <v>0.060000000000000005</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01440164599646191</v>
+        <v>0.012957670877434001</v>
       </c>
       <c r="M29" t="n">
         <v>0.0533333333333333</v>
@@ -4443,28 +4493,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
         <v>92</v>
       </c>
       <c r="D30" t="n">
-        <v>47.0</v>
+        <v>10.0</v>
       </c>
       <c r="E30" t="n">
         <v>4.0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.00517408124222496</v>
       </c>
       <c r="G30" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.012593280988826</v>
       </c>
       <c r="H30" t="n">
-        <v>0.224805627545354</v>
+        <v>0.0364309514994447</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4473,10 +4523,10 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.060000000000000005</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0</v>
+        <v>0.012957670877434001</v>
       </c>
       <c r="M30" t="n">
         <v>0.0533333333333333</v>
@@ -4487,43 +4537,43 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D31" t="n">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
       <c r="E31" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00123870226618732</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00103438931083437</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.224805627545354</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
       </c>
       <c r="J31" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4534,10 +4584,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -4575,13 +4625,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -4622,10 +4672,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -4666,10 +4716,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -4710,10 +4760,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -4754,10 +4804,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -4798,10 +4848,10 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -4842,10 +4892,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -4886,10 +4936,10 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -4930,7 +4980,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>78</v>
@@ -4971,13 +5021,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -5015,13 +5065,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -5062,10 +5112,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -5106,10 +5156,10 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D45" t="e">
         <v>#NUM!</v>
@@ -5150,10 +5200,10 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -5194,10 +5244,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -5238,10 +5288,10 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -5282,10 +5332,10 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5309,7 +5359,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -5326,10 +5376,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -5353,7 +5403,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.36</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -5370,10 +5420,10 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5397,7 +5447,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.36</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -5414,10 +5464,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5458,10 +5508,10 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5485,7 +5535,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -5502,10 +5552,10 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5529,7 +5579,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -5546,10 +5596,10 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5573,7 +5623,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -5590,10 +5640,10 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5617,7 +5667,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -5634,10 +5684,10 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5661,7 +5711,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.22666666666666666</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5678,11 +5728,11 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
         <v>85</v>
       </c>
-      <c r="C58" t="s">
-        <v>120</v>
-      </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
       </c>
@@ -5705,7 +5755,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.24</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -5722,10 +5772,10 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5749,7 +5799,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.24</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5766,10 +5816,10 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5793,7 +5843,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5807,13 +5857,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5837,7 +5887,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.28</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5851,13 +5901,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5881,7 +5931,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.28</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5895,13 +5945,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5939,13 +5989,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -5969,7 +6019,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -5983,13 +6033,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -6013,7 +6063,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.12</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -6027,13 +6077,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -6057,7 +6107,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -6071,13 +6121,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6101,7 +6151,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.38666666666666666</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L67" t="n">
         <v>0.0</v>
@@ -6115,13 +6165,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -6145,15 +6195,59 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M68" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N68" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.17333333333333334</v>
       </c>
-      <c r="L68" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M68" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N68" t="e">
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
+++ b/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -57,60 +57,63 @@
     <t>39</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
     <t>36</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>5</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -174,9 +177,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -237,159 +237,159 @@
     <t>Mutation ALK</t>
   </si>
   <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_KRAS_NF1</t>
   </si>
   <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
     <t>Amplification MDM2</t>
   </si>
   <si>
-    <t>Mutation EGFR</t>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mutation TSC2</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation CCNE1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
   </si>
   <si>
     <t>Amplification CDK4</t>
   </si>
   <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MET</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
+    <t>Amplification BRAF</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion ATM</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation PTEN</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern NF1_and_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_SMARCA4</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Mutation TSC2</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification BRAF</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Deletion ATM</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation PTEN</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern NF1_and_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
     <t>Pattern OR_KRAS_TP53</t>
   </si>
   <si>
@@ -450,6 +450,9 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
@@ -468,10 +471,13 @@
     <t>66</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -581,16 +587,16 @@
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00351779937968047</v>
+        <v>6.82507928184255E-39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.76289867820922E-42</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>79.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -616,37 +622,37 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>1.33780318427279E-39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0446750736976944</v>
+        <v>6.25611765495683E-41</v>
       </c>
       <c r="H3" t="n">
-        <v>0.100037023324695</v>
+        <v>9.19673290886873E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.007027283689263066</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -657,28 +663,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E4" t="n">
         <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00123870226618732</v>
+        <v>2.33294415439561E-41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00103438931083437</v>
+        <v>3.79855575686229E-44</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -701,25 +707,25 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00105828080128529</v>
+        <v>6.31572295233876E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00138921505504952</v>
+        <v>1.43031330210063E-37</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00673824509440949</v>
+        <v>2.74980749609343E-4</v>
       </c>
       <c r="I5" t="n">
         <v>40.0</v>
@@ -728,16 +734,16 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.012570787221094181</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.076</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0141246654062851</v>
       </c>
     </row>
     <row r="6">
@@ -745,37 +751,37 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>5.54308041856931E-31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00102257159400898</v>
+        <v>9.42781196460221E-33</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00491923526845387</v>
+        <v>0.0375937967680202</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.072</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.08</v>
@@ -789,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -801,16 +807,16 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00105828080128529</v>
+        <v>2.47367259931411E-41</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.16356224637222E-46</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>0.0302764582062286</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -833,43 +839,43 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="n">
         <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0232135310588704</v>
+        <v>1.35566218971308E-5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0125130804622741</v>
+        <v>1.57810416551996E-22</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.076</v>
       </c>
       <c r="L8" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0693333333333333</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0.0151372323252679</v>
       </c>
     </row>
     <row r="9">
@@ -877,40 +883,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0410709889037178</v>
+        <v>3.01296898025011E-38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00200033415174113</v>
+        <v>1.97200851004072E-31</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -921,43 +927,43 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>1.41442672707694E-35</v>
       </c>
       <c r="G10" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.06286074564602E-28</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0608369208214857</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13466666666666666</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>0.019321835661585917</v>
+        <v>0.007027283689263066</v>
       </c>
       <c r="M10" t="n">
-        <v>0.137333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0109769680313142</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -965,43 +971,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134427088373203</v>
+        <v>1.17895867599047E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00105828080128529</v>
+        <v>5.92166443379389E-27</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.096</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.007568616162633958</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0946666666666667</v>
+        <v>0.0746666666666667</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00421637021355784</v>
+        <v>0.00932274531706802</v>
       </c>
     </row>
     <row r="12">
@@ -1009,40 +1015,40 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.012616400883341</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00103438931083437</v>
+        <v>5.83168605199802E-32</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0344681177578632</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.144</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>0.017554149029450225</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1053,7 +1059,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -1065,31 +1071,31 @@
         <v>6.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324263384761535</v>
+        <v>0.00120542757032372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0148311294556886</v>
+        <v>3.82209991778412E-36</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.00911416915661561</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400000000000001</v>
+        <v>0.10933333333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01513723232526791</v>
+        <v>0.017554149029450218</v>
       </c>
       <c r="M13" t="n">
-        <v>0.096</v>
+        <v>0.110666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0151372323252679</v>
+        <v>0.0109769680313142</v>
       </c>
     </row>
     <row r="14">
@@ -1100,40 +1106,40 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00152971453112426</v>
+        <v>3.60768724278505E-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00116550116550117</v>
+        <v>1.17022645077461E-26</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.0300999629766753</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.01405456737852613</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.0573333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>0.00899931410280737</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1150,40 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0684404828872903</v>
+        <v>3.01207031958599E-7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0324675324675325</v>
+        <v>3.4735109410817E-33</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0105146242132543</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L15" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.064</v>
+        <v>0.0946666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0122524877796358</v>
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="16">
@@ -1185,43 +1191,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>97</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0468811053418156</v>
+        <v>8.04787290675244E-20</v>
       </c>
       <c r="G16" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.30951587802545E-23</v>
       </c>
       <c r="H16" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.0413451807972356</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.072</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.01405456737852613</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.056</v>
       </c>
       <c r="N16" t="n">
-        <v>0.012957670877434</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="17">
@@ -1229,28 +1235,28 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E17" t="n">
         <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00102257159400898</v>
+        <v>2.52430541540745E-41</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00213336241108807</v>
+        <v>2.66982176309836E-37</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
@@ -1273,43 +1279,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#NUM!</v>
+      <c r="D18" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.79603437757158E-41</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.18392387598992E-47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
-      <c r="M18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#NUM!</v>
+      <c r="M18" t="n">
+        <v>0.106666666666667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1350,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -1364,7 +1370,7 @@
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1388,7 +1394,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -1408,7 +1414,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1432,7 +1438,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.16</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1452,7 +1458,7 @@
         <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1476,7 +1482,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1496,7 +1502,7 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1520,7 +1526,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.04</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1540,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1564,7 +1570,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -1584,7 +1590,7 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1614,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -1628,7 +1634,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1652,7 +1658,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1672,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1696,7 +1702,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1716,7 +1722,7 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1740,7 +1746,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -1784,7 +1790,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -1804,7 +1810,7 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1828,7 +1834,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.14666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -1848,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1872,7 +1878,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -1892,7 +1898,7 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1922,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -1936,7 +1942,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -1960,7 +1966,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -1980,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2004,7 +2010,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2024,7 +2030,7 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2048,7 +2054,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
@@ -2092,7 +2098,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -2136,7 +2142,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2180,7 +2186,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2224,7 +2230,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2268,7 +2274,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.37333333333333335</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -2312,7 +2318,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.12</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2356,7 +2362,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2508,7 +2514,7 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2640,7 +2646,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2684,7 +2690,7 @@
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2728,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2772,7 +2778,7 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2816,7 +2822,7 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -3168,7 +3174,7 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -3261,7 +3267,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -3276,16 +3282,16 @@
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00351779937968047</v>
+        <v>6.82507928184255E-39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.76289867820922E-42</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>79.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -3305,43 +3311,43 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>1.33780318427279E-39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0446750736976944</v>
+        <v>6.25611765495683E-41</v>
       </c>
       <c r="H3" t="n">
-        <v>0.100037023324695</v>
+        <v>9.19673290886873E-4</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0.007027283689263066</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -3349,31 +3355,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E4" t="n">
         <v>3.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00123870226618732</v>
+        <v>2.33294415439561E-41</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00103438931083437</v>
+        <v>3.79855575686229E-44</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
@@ -3393,28 +3399,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00105828080128529</v>
+        <v>6.31572295233876E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00138921505504952</v>
+        <v>1.43031330210063E-37</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00673824509440949</v>
+        <v>2.74980749609343E-4</v>
       </c>
       <c r="I5" t="n">
         <v>40.0</v>
@@ -3423,54 +3429,54 @@
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.012570787221094181</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.0813333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0171557858361056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="E6" t="n">
         <v>6.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>5.54308041856931E-31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00102257159400898</v>
+        <v>9.42781196460221E-33</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00491923526845387</v>
+        <v>0.0375937967680202</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.072</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
         <v>0.08</v>
@@ -3481,10 +3487,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -3496,16 +3502,16 @@
         <v>6.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00105828080128529</v>
+        <v>2.47367259931411E-41</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.16356224637222E-46</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>0.0302764582062286</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
@@ -3525,87 +3531,87 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E8" t="n">
         <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0232135310588704</v>
+        <v>1.35566218971308E-5</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0125130804622741</v>
+        <v>1.57810416551996E-22</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.076</v>
       </c>
       <c r="L8" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0613333333333333</v>
+        <v>0.072</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0143329026636419</v>
+        <v>0.0168654808542314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0410709889037178</v>
+        <v>3.01296898025011E-38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00200033415174113</v>
+        <v>1.97200851004072E-31</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
         <v>0.0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -3613,142 +3619,142 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>1.41442672707694E-35</v>
       </c>
       <c r="G10" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.06286074564602E-28</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0608369208214857</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13466666666666666</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>0.019321835661585917</v>
+        <v>0.007027283689263066</v>
       </c>
       <c r="M10" t="n">
-        <v>0.148</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.018270937592084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134427088373203</v>
+        <v>1.17895867599047E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00105828080128529</v>
+        <v>5.92166443379389E-27</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.096</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.007568616162633958</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.0125707872210942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.012616400883341</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00103438931083437</v>
+        <v>5.83168605199802E-32</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0344681177578632</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>29.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.144</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0</v>
+        <v>0.017554149029450225</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.134666666666667</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0</v>
+        <v>0.00421637021355784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
@@ -3760,72 +3766,72 @@
         <v>6.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324263384761535</v>
+        <v>0.00120542757032372</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0148311294556886</v>
+        <v>3.82209991778412E-36</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.00911416915661561</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400000000000001</v>
+        <v>0.10933333333333334</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01513723232526791</v>
+        <v>0.017554149029450218</v>
       </c>
       <c r="M13" t="n">
-        <v>0.113333333333333</v>
+        <v>0.114666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00942809041582063</v>
+        <v>0.0179986282056147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00152971453112426</v>
+        <v>3.01207031958599E-7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00116550116550117</v>
+        <v>3.4735109410817E-33</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3833,87 +3839,87 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0468811053418156</v>
+        <v>8.04787290675244E-20</v>
       </c>
       <c r="G15" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.30951587802545E-23</v>
       </c>
       <c r="H15" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.0413451807972356</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.072</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.01405456737852613</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0813333333333333</v>
+        <v>0.056</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0132590523468234</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>47.0</v>
+        <v>55.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>2.79603437757158E-41</v>
       </c>
       <c r="G16" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>9.18392387598992E-47</v>
       </c>
       <c r="H16" t="n">
         <v>0.0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L16" t="n">
         <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04</v>
+        <v>0.106666666666667</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3921,13 +3927,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
         <v>4.0</v>
@@ -3936,13 +3942,13 @@
         <v>3.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0598910393226066</v>
+        <v>5.29309643640131E-5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00246101783766158</v>
+        <v>1.6329055203531E-30</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0063680118474639</v>
+        <v>5.92373195112921E-5</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -3957,7 +3963,7 @@
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0426666666666667</v>
+        <v>0.056</v>
       </c>
       <c r="N17" t="n">
         <v>0.00843274042711568</v>
@@ -3965,13 +3971,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D18" t="n">
         <v>16.0</v>
@@ -3980,13 +3986,13 @@
         <v>7.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00196036862130397</v>
+        <v>3.51318458248449E-38</v>
       </c>
       <c r="G18" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.85380710860438E-35</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0129183592235879</v>
+        <v>0.00400919000689152</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3995,10 +4001,10 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.096</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
         <v>0.0933333333333333</v>
@@ -4009,28 +4015,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D19" t="n">
-        <v>47.0</v>
+        <v>16.0</v>
       </c>
       <c r="E19" t="n">
         <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00102257159400898</v>
+        <v>3.70816522344965E-41</v>
       </c>
       <c r="G19" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>1.33318914728441E-24</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>0.0286807355300506</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -4053,28 +4059,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D20" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n">
         <v>4.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00128063972744154</v>
+        <v>8.08600739659678E-31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0325404793288958</v>
+        <v>7.92752407417105E-29</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0450944094779712</v>
+        <v>0.00466493891151425</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -4097,28 +4103,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" t="n">
         <v>4.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0010108390316258</v>
+        <v>8.63121173470797E-34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0325404793288958</v>
+        <v>1.17849233127481E-26</v>
       </c>
       <c r="H21" t="n">
-        <v>0.113143280266568</v>
+        <v>0.083598667160311</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
@@ -4141,28 +4147,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D22" t="n">
-        <v>52.0</v>
+        <v>18.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00103438931083437</v>
+        <v>2.59623209395204E-41</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00138921505504952</v>
+        <v>7.61440842378008E-20</v>
       </c>
       <c r="H22" t="n">
-        <v>0.308404294705665</v>
+        <v>0.241688263606071</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -4171,13 +4177,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -4185,43 +4191,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
-        <v>17.0</v>
+        <v>52.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00102257159400898</v>
+        <v>2.04835819910229E-41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00213336241108807</v>
+        <v>2.86650925425048E-45</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -4229,28 +4235,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>47.0</v>
+        <v>11.0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00105828080128529</v>
+        <v>3.53266005848971E-35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0034965034965035</v>
+        <v>0.00352766925814595</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0213969323599224</v>
+        <v>0.153292903167493</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4259,13 +4265,13 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4273,28 +4279,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D25" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.196182248573794</v>
+        <v>2.0112855070824E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0147413977079652</v>
+        <v>6.97324278189887E-6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.012501542638529</v>
+        <v>0.0483140481789913</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4303,13 +4309,13 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -4317,28 +4323,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D26" t="n">
-        <v>13.0</v>
+        <v>29.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0010108390316258</v>
+        <v>2.62139443954638E-41</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0131118881118881</v>
+        <v>2.00515105931643E-40</v>
       </c>
       <c r="H26" t="n">
-        <v>0.117860051832655</v>
+        <v>0.00235906367490392</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4347,13 +4353,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04</v>
+        <v>0.10933333333333334</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>0.017554149029450218</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4361,28 +4367,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.273566479988148</v>
+        <v>6.40477481792112E-12</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235786594350109</v>
+        <v>1.01563876790845E-26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0697806485960066</v>
+        <v>0.0881936617151041</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4391,13 +4397,13 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.106666666666667</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -4405,28 +4411,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0160193159689903</v>
+        <v>2.38741074655754E-41</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0316678519127859</v>
+        <v>9.14656348591853E-37</v>
       </c>
       <c r="H28" t="n">
-        <v>0.179588154621919</v>
+        <v>0.0344070097494755</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4435,13 +4441,13 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>0.007568616162633958</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4449,28 +4455,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D29" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E29" t="n">
         <v>15.0</v>
       </c>
-      <c r="E29" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0.00103438931083437</v>
+        <v>3.00106404136297E-41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0235786594350109</v>
+        <v>9.37208135814989E-33</v>
       </c>
       <c r="H29" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0278478672864182</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4479,13 +4485,13 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -4493,28 +4499,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D30" t="n">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00517408124222496</v>
+        <v>1.35924886880417E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.012593280988826</v>
+        <v>8.70484478436003E-7</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0364309514994447</v>
+        <v>0.0063680118474639</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
@@ -4523,42 +4529,42 @@
         <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.04</v>
       </c>
       <c r="L30" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0426666666666667</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>2.26490719952113E-41</v>
       </c>
       <c r="G31" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.00674324646456823</v>
       </c>
       <c r="H31" t="n">
-        <v>0.224805627545354</v>
+        <v>0.610692336171788</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4567,13 +4573,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4581,189 +4587,189 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#NUM!</v>
+        <v>97</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.4006843113373E-34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.24240592419943E-26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.083598667160311</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" t="e">
-        <v>#NUM!</v>
+        <v>0.01405456737852613</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#NUM!</v>
+        <v>97</v>
+      </c>
+      <c r="D33" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.30352163537636E-41</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.41266038848342E-36</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0478341355053683</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" t="e">
-        <v>#NUM!</v>
+        <v>0.01405456737852613</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#NUM!</v>
+        <v>92</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.56812347458462E-41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.41905178895125E-35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0286807355300506</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.16</v>
+        <v>0.076</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e">
-        <v>#NUM!</v>
+        <v>0.01412466540628507</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#NUM!</v>
+        <v>129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.58816576560339E-8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.62940147414573E-28</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.121025938577863</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
-      <c r="M35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" t="e">
-        <v>#NUM!</v>
+      <c r="M35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -4787,7 +4793,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.04</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -4801,13 +4807,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -4831,7 +4837,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -4845,13 +4851,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -4875,7 +4881,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -4889,13 +4895,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -4919,7 +4925,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -4933,13 +4939,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -4963,7 +4969,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -4977,13 +4983,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -5007,7 +5013,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.14666666666666667</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -5021,13 +5027,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -5051,7 +5057,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -5065,13 +5071,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -5095,7 +5101,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -5115,7 +5121,7 @@
         <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -5139,7 +5145,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.12</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
@@ -5153,7 +5159,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
@@ -5183,7 +5189,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -5197,13 +5203,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -5227,7 +5233,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -5241,13 +5247,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -5271,7 +5277,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
@@ -5285,13 +5291,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -5315,7 +5321,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.37333333333333335</v>
+        <v>0.2</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -5329,13 +5335,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5359,7 +5365,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -5373,13 +5379,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -5403,7 +5409,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -5417,13 +5423,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5447,7 +5453,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.36</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -5461,13 +5467,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5491,7 +5497,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -5505,13 +5511,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5535,7 +5541,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -5549,13 +5555,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5579,7 +5585,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.36</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -5593,13 +5599,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5623,7 +5629,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -5637,13 +5643,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5667,7 +5673,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -5681,13 +5687,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5711,7 +5717,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5725,13 +5731,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5755,7 +5761,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.22666666666666666</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -5769,13 +5775,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5799,7 +5805,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.24</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5813,13 +5819,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5843,7 +5849,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5857,13 +5863,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5887,7 +5893,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5901,13 +5907,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5931,7 +5937,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5951,7 +5957,7 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5975,7 +5981,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L63" t="n">
         <v>0.0</v>
@@ -5995,7 +6001,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -6019,7 +6025,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -6039,7 +6045,7 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -6063,7 +6069,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.28</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -6083,7 +6089,7 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -6107,7 +6113,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.12</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -6127,7 +6133,7 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6151,7 +6157,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L67" t="n">
         <v>0.0</v>
@@ -6171,7 +6177,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -6195,7 +6201,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.38666666666666666</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="L68" t="n">
         <v>0.0</v>
@@ -6215,7 +6221,7 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -6239,15 +6245,103 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.17333333333333334</v>
       </c>
-      <c r="L69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N69" t="e">
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N71" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
+++ b/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
@@ -54,54 +54,54 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>34</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -234,13 +234,28 @@
     <t>60</t>
   </si>
   <si>
+    <t>Deletion CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDKN2A</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
     <t>Mutation ALK</t>
   </si>
   <si>
-    <t>Deletion CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation KRAS</t>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation MET</t>
   </si>
   <si>
     <t>Pattern OR_EGFR_KRAS_NF1</t>
@@ -249,67 +264,52 @@
     <t>Amplification MDM2</t>
   </si>
   <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
     <t>Amplification CDK4</t>
   </si>
   <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDKN2A</t>
-  </si>
-  <si>
     <t>Pattern XOR_MET</t>
   </si>
   <si>
     <t>Mutation MTOR</t>
   </si>
   <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_SMARCA4</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation CCNE1</t>
+  </si>
+  <si>
     <t>Mutation TSC2</t>
   </si>
   <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
     <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Mutation CCNE1</t>
   </si>
   <si>
     <t>Amplification BRAF</t>
@@ -575,22 +575,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00351779937968047</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G2" t="n">
         <v>0.00138921505504952</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.00673824509440949</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -619,22 +619,22 @@
         <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="E3" t="n">
         <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0446750736976944</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H3" t="n">
-        <v>0.100037023324695</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -657,40 +657,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00123870226618732</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00213336241108807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.00673824509440948</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -701,40 +701,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00491923526845387</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.006440611887195307</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -745,40 +745,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00351779937968047</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00491923526845387</v>
+        <v>1.72775515241269E-4</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.072</v>
+        <v>0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -789,25 +789,25 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.0468811053418156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.39112680112101E-4</v>
       </c>
       <c r="I7" t="n">
         <v>40.0</v>
@@ -816,16 +816,16 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0.07466666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>0.014332902663641869</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>0.0109769680313142</v>
       </c>
     </row>
     <row r="8">
@@ -833,40 +833,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0232135310588704</v>
+        <v>0.0410709889037178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0125130804622741</v>
+        <v>0.00200033415174113</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204733771008129</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N8" t="n">
         <v>0.0</v>
@@ -877,25 +877,25 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0410709889037178</v>
+        <v>0.134427088373203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00200033415174113</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.0141102321692713</v>
       </c>
       <c r="I9" t="n">
         <v>20.0</v>
@@ -904,13 +904,13 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.012881223774390611</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N9" t="n">
         <v>0.0</v>
@@ -921,25 +921,25 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>43.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G10" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>20.0</v>
@@ -948,16 +948,16 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13466666666666666</v>
+        <v>0.08</v>
       </c>
       <c r="L10" t="n">
-        <v>0.019321835661585917</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.137333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0109769680313142</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -965,25 +965,25 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134427088373203</v>
+        <v>0.0232135310588704</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.0125130804622741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0141102321692713</v>
+        <v>2.9618659755646E-4</v>
       </c>
       <c r="I11" t="n">
         <v>20.0</v>
@@ -992,16 +992,16 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.096</v>
+        <v>0.06266666666666668</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0946666666666667</v>
+        <v>0.056</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00421637021355784</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="12">
@@ -1009,25 +1009,25 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00123870226618732</v>
       </c>
       <c r="G12" t="n">
         <v>0.00103438931083437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I12" t="n">
         <v>20.0</v>
@@ -1036,13 +1036,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -1053,43 +1053,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324263384761535</v>
+        <v>0.5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0148311294556886</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>1.62712124846843E-4</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400000000000001</v>
+        <v>0.14266666666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01513723232526791</v>
+        <v>0.01264911064067352</v>
       </c>
       <c r="M13" t="n">
-        <v>0.096</v>
+        <v>0.146666666666667</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0151372323252679</v>
+        <v>0.016629588385662</v>
       </c>
     </row>
     <row r="14">
@@ -1100,40 +1100,40 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="E14" t="n">
         <v>6.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00152971453112426</v>
+        <v>0.324263384761535</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00116550116550117</v>
+        <v>0.0148311294556886</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0267470055430696</v>
+        <v>1.76823001441948E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.016629588385661958</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.104</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>0.0122524877796357</v>
       </c>
     </row>
     <row r="15">
@@ -1141,43 +1141,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D15" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E15" t="n">
         <v>6.0</v>
       </c>
-      <c r="E15" t="n">
-        <v>4.0</v>
-      </c>
       <c r="F15" t="n">
-        <v>0.0684404828872903</v>
+        <v>0.00152971453112426</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0324675324675325</v>
+        <v>0.00116550116550117</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0105146242132543</v>
+        <v>0.0267470055430696</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="L15" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.006440611887195307</v>
       </c>
       <c r="M15" t="n">
-        <v>0.064</v>
+        <v>0.08</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0122524877796358</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1185,43 +1185,43 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D16" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="E16" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.0684404828872903</v>
       </c>
       <c r="G16" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.0324675324675325</v>
       </c>
       <c r="H16" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.0105146242132543</v>
       </c>
       <c r="I16" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.072</v>
+        <v>0.06266666666666668</v>
       </c>
       <c r="L16" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0733333333333333</v>
+        <v>0.0586666666666667</v>
       </c>
       <c r="N16" t="n">
-        <v>0.012957670877434</v>
+        <v>0.00932274531706801</v>
       </c>
     </row>
     <row r="17">
@@ -1229,25 +1229,25 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="E17" t="n">
         <v>4.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00102257159400898</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00213336241108807</v>
+        <v>0.0446750736976944</v>
       </c>
       <c r="H17" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -1364,7 +1364,7 @@
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1496,7 +1496,7 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1540,7 +1540,7 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D24" t="e">
         <v>#NUM!</v>
@@ -1804,7 +1804,7 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1892,7 +1892,7 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1936,7 +1936,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -2508,7 +2508,7 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2640,7 +2640,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2684,7 +2684,7 @@
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -3168,7 +3168,7 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -3270,22 +3270,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00351779937968047</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G2" t="n">
         <v>0.00138921505504952</v>
       </c>
       <c r="H2" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.00673824509440949</v>
       </c>
       <c r="I2" t="n">
-        <v>100.0</v>
+        <v>80.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -3314,22 +3314,22 @@
         <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="E3" t="n">
         <v>4.0</v>
       </c>
       <c r="F3" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0446750736976944</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="H3" t="n">
-        <v>0.100037023324695</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I3" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
@@ -3349,43 +3349,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00123870226618732</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00213336241108807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00177711958533876</v>
+        <v>0.00673824509440948</v>
       </c>
       <c r="I4" t="n">
-        <v>60.0</v>
+        <v>80.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L4" t="n">
         <v>0.0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3393,43 +3393,43 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="E5" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00491923526845387</v>
       </c>
       <c r="I5" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0</v>
+        <v>0.006440611887195307</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5" t="n">
         <v>0.0</v>
@@ -3437,43 +3437,43 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00351779937968047</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00491923526845387</v>
+        <v>1.72775515241269E-4</v>
       </c>
       <c r="I6" t="n">
-        <v>40.0</v>
+        <v>80.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.072</v>
+        <v>0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N6" t="n">
         <v>0.0</v>
@@ -3481,28 +3481,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>43.0</v>
+        <v>8.0</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.0468811053418156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0</v>
+        <v>1.39112680112101E-4</v>
       </c>
       <c r="I7" t="n">
         <v>40.0</v>
@@ -3511,86 +3511,86 @@
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.08</v>
+        <v>0.07466666666666667</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0</v>
+        <v>0.014332902663641869</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08</v>
+        <v>0.0773333333333333</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0</v>
+        <v>0.0137706074531819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>92</v>
       </c>
       <c r="D8" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="E8" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0232135310588704</v>
+        <v>0.0410709889037178</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0125130804622741</v>
+        <v>0.00200033415174113</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204733771008129</v>
       </c>
       <c r="I8" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.08</v>
       </c>
       <c r="L8" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0613333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0143329026636419</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D9" t="n">
-        <v>11.0</v>
+        <v>9.0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0410709889037178</v>
+        <v>0.134427088373203</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00200033415174113</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.0141102321692713</v>
       </c>
       <c r="I9" t="n">
         <v>20.0</v>
@@ -3599,42 +3599,42 @@
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0</v>
+        <v>0.012881223774390611</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08</v>
+        <v>0.096</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="n">
-        <v>8.0</v>
+        <v>43.0</v>
       </c>
       <c r="E10" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G10" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
         <v>20.0</v>
@@ -3643,42 +3643,42 @@
         <v>100.0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13466666666666666</v>
+        <v>0.08</v>
       </c>
       <c r="L10" t="n">
-        <v>0.019321835661585917</v>
+        <v>0.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.148</v>
+        <v>0.08</v>
       </c>
       <c r="N10" t="n">
-        <v>0.018270937592084</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.134427088373203</v>
+        <v>0.0232135310588704</v>
       </c>
       <c r="G11" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.0125130804622741</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0141102321692713</v>
+        <v>2.9618659755646E-4</v>
       </c>
       <c r="I11" t="n">
         <v>20.0</v>
@@ -3687,13 +3687,13 @@
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.096</v>
+        <v>0.06266666666666668</v>
       </c>
       <c r="L11" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N11" t="n">
         <v>0.0</v>
@@ -3701,28 +3701,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="n">
-        <v>19.0</v>
+        <v>10.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.00123870226618732</v>
       </c>
       <c r="G12" t="n">
         <v>0.00103438931083437</v>
       </c>
       <c r="H12" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I12" t="n">
         <v>20.0</v>
@@ -3731,13 +3731,13 @@
         <v>100.0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L12" t="n">
         <v>0.0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N12" t="n">
         <v>0.0</v>
@@ -3745,87 +3745,87 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13" t="n">
-        <v>7.0</v>
+        <v>47.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.324263384761535</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0148311294556886</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J13" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.10400000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01513723232526791</v>
+        <v>0.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.113333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00942809041582063</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D14" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00152971453112426</v>
+        <v>0.0598910393226066</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00116550116550117</v>
+        <v>0.00246101783766158</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.0063680118474639</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.072</v>
+        <v>0.04</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N14" t="n">
         <v>0.0</v>
@@ -3833,72 +3833,72 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D15" t="n">
         <v>8.0</v>
       </c>
       <c r="E15" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.5</v>
       </c>
       <c r="G15" t="n">
         <v>2.91375291375291E-4</v>
       </c>
       <c r="H15" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>1.62712124846843E-4</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.072</v>
+        <v>0.14266666666666666</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006885303726590965</v>
+        <v>0.01264911064067352</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0813333333333333</v>
+        <v>0.146666666666667</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0132590523468234</v>
+        <v>0.016629588385662</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D16" t="n">
-        <v>47.0</v>
+        <v>16.0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F16" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.00196036862130397</v>
       </c>
       <c r="G16" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>2.91375291375291E-4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0</v>
+        <v>0.0129183592235879</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -3907,13 +3907,13 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.04</v>
+        <v>0.09866666666666667</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0</v>
+        <v>0.012881223774390611</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N16" t="n">
         <v>0.0</v>
@@ -3921,28 +3921,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E17" t="n">
         <v>4.0</v>
       </c>
-      <c r="E17" t="n">
-        <v>3.0</v>
-      </c>
       <c r="F17" t="n">
-        <v>0.0598910393226066</v>
+        <v>0.00102257159400898</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00246101783766158</v>
+        <v>5.28787541966261E-4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0063680118474639</v>
+        <v>0.0</v>
       </c>
       <c r="I17" t="n">
         <v>0.0</v>
@@ -3951,42 +3951,42 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0426666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00196036862130397</v>
+        <v>0.00128063972744154</v>
       </c>
       <c r="G18" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>0.0325404793288958</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0129183592235879</v>
+        <v>0.0450944094779712</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3995,13 +3995,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.096</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008432740427115675</v>
+        <v>0.0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -4009,28 +4009,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>47.0</v>
+        <v>18.0</v>
       </c>
       <c r="E19" t="n">
         <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G19" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.0325404793288958</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0</v>
+        <v>0.113143280266568</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -4053,28 +4053,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="n">
-        <v>10.0</v>
+        <v>52.0</v>
       </c>
       <c r="E20" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00128063972744154</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0325404793288958</v>
+        <v>0.00138921505504952</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0450944094779712</v>
+        <v>0.308404294705665</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -4083,13 +4083,13 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -4097,72 +4097,72 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D21" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="E21" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.324263384761535</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0325404793288958</v>
+        <v>0.0148311294556886</v>
       </c>
       <c r="H21" t="n">
-        <v>0.113143280266568</v>
+        <v>1.76823001441948E-4</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0</v>
+        <v>0.016629588385661958</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.110666666666667</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0</v>
+        <v>0.0141246654062851</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="D22" t="n">
-        <v>52.0</v>
+        <v>47.0</v>
       </c>
       <c r="E22" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00105828080128529</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00138921505504952</v>
+        <v>0.0034965034965035</v>
       </c>
       <c r="H22" t="n">
-        <v>0.308404294705665</v>
+        <v>0.0213969323599224</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -4171,13 +4171,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -4185,28 +4185,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
         <v>85</v>
       </c>
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
       <c r="D23" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00102257159400898</v>
+        <v>0.00152971453112426</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00213336241108807</v>
+        <v>0.00116550116550117</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00673824509440948</v>
+        <v>0.0267470055430696</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
@@ -4215,13 +4215,13 @@
         <v>100.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.07066666666666667</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0</v>
+        <v>0.006440611887195307</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -4229,28 +4229,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D24" t="n">
-        <v>47.0</v>
+        <v>4.0</v>
       </c>
       <c r="E24" t="n">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00105828080128529</v>
+        <v>0.196182248573794</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0034965034965035</v>
+        <v>0.0147413977079652</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0213969323599224</v>
+        <v>0.012501542638529</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4259,13 +4259,13 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4273,28 +4273,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>111</v>
       </c>
       <c r="D25" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="E25" t="n">
         <v>3.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.196182248573794</v>
+        <v>0.0010108390316258</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0147413977079652</v>
+        <v>0.0131118881118881</v>
       </c>
       <c r="H25" t="n">
-        <v>0.012501542638529</v>
+        <v>0.117860051832655</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4317,28 +4317,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D26" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0010108390316258</v>
+        <v>0.273566479988148</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0131118881118881</v>
+        <v>0.0235786594350109</v>
       </c>
       <c r="H26" t="n">
-        <v>0.117860051832655</v>
+        <v>0.0697806485960066</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4347,13 +4347,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.04</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4361,28 +4361,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C27" t="s">
         <v>112</v>
       </c>
       <c r="D27" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E27" t="n">
         <v>5.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.273566479988148</v>
+        <v>0.0160193159689903</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0235786594350109</v>
+        <v>0.0316678519127859</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0697806485960066</v>
+        <v>0.179588154621919</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4405,28 +4405,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D28" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="E28" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0160193159689903</v>
+        <v>0.00103438931083437</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0316678519127859</v>
+        <v>0.0235786594350109</v>
       </c>
       <c r="H28" t="n">
-        <v>0.179588154621919</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4435,13 +4435,13 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.06266666666666668</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N28" t="n">
         <v>0.0</v>
@@ -4449,28 +4449,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="E29" t="n">
         <v>4.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00103438931083437</v>
+        <v>0.00517408124222496</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0235786594350109</v>
+        <v>0.012593280988826</v>
       </c>
       <c r="H29" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0364309514994447</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4479,10 +4479,10 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.06266666666666668</v>
       </c>
       <c r="L29" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.01412466540628507</v>
       </c>
       <c r="M29" t="n">
         <v>0.0533333333333333</v>
@@ -4493,40 +4493,40 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D30" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E30" t="n">
         <v>4.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00517408124222496</v>
+        <v>9.53448157979974E-4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.012593280988826</v>
+        <v>0.0446750736976944</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0364309514994447</v>
+        <v>0.100037023324695</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.060000000000000005</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L30" t="n">
-        <v>0.012957670877434001</v>
+        <v>0.0</v>
       </c>
       <c r="M30" t="n">
         <v>0.0533333333333333</v>
@@ -4543,7 +4543,7 @@
         <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D31" t="n">
         <v>47.0</v>
@@ -4625,13 +4625,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D33" t="e">
         <v>#NUM!</v>
@@ -4763,7 +4763,7 @@
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -4807,7 +4807,7 @@
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -4983,7 +4983,7 @@
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -5021,7 +5021,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
@@ -5555,7 +5555,7 @@
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5687,7 +5687,7 @@
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5731,7 +5731,7 @@
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -6215,7 +6215,7 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>

--- a/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
+++ b/output/LUAD_statistics_proximal inflammatory (PI, squamoid).xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="155">
   <si>
     <t>capri_bic.SELECTS</t>
   </si>
@@ -54,63 +54,66 @@
     <t>capri_bic.SD.POSTERR</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -174,9 +177,6 @@
     <t>40</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>42</t>
   </si>
   <si>
@@ -234,162 +234,162 @@
     <t>60</t>
   </si>
   <si>
+    <t>Mutation ALK</t>
+  </si>
+  <si>
+    <t>Mutation EGFR</t>
+  </si>
+  <si>
+    <t>Mutation KRAS</t>
+  </si>
+  <si>
+    <t>Mutation KEAP1</t>
+  </si>
+  <si>
     <t>Deletion CDKN2A</t>
   </si>
   <si>
+    <t>Pattern XOR_MET</t>
+  </si>
+  <si>
+    <t>Mutation ARID2</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Amplification MDM2</t>
+  </si>
+  <si>
     <t>Pattern OR_CDKN2A</t>
   </si>
   <si>
+    <t>Mutation MET</t>
+  </si>
+  <si>
+    <t>Mutation MTOR</t>
+  </si>
+  <si>
+    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mutation TSC2</t>
+  </si>
+  <si>
+    <t>Amplification EGFR</t>
+  </si>
+  <si>
+    <t>Mutation STK11</t>
+  </si>
+  <si>
+    <t>Amplification CCND1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF</t>
+  </si>
+  <si>
+    <t>Mutation CCNE1</t>
+  </si>
+  <si>
+    <t>Mutation RB1</t>
+  </si>
+  <si>
+    <t>Mutation ROS1</t>
+  </si>
+  <si>
+    <t>Mutation SMARCA4</t>
+  </si>
+  <si>
+    <t>Mutation RET</t>
+  </si>
+  <si>
+    <t>Amplification MET</t>
+  </si>
+  <si>
+    <t>Mutation ATM</t>
+  </si>
+  <si>
+    <t>Amplification CDK4</t>
+  </si>
+  <si>
+    <t>Amplification BRAF</t>
+  </si>
+  <si>
+    <t>Amplification CCNE1</t>
+  </si>
+  <si>
+    <t>Amplification KRAS</t>
+  </si>
+  <si>
+    <t>Amplification RIT1</t>
+  </si>
+  <si>
+    <t>Deletion ATM</t>
+  </si>
+  <si>
+    <t>Mutation ARID1A</t>
+  </si>
+  <si>
+    <t>Mutation ARID1B</t>
+  </si>
+  <si>
+    <t>Mutation BRAF</t>
+  </si>
+  <si>
+    <t>Mutation CDKN2A</t>
+  </si>
+  <si>
+    <t>Mutation ERBB2</t>
+  </si>
+  <si>
+    <t>Mutation NF1</t>
+  </si>
+  <si>
+    <t>Mutation PIK3CA</t>
+  </si>
+  <si>
+    <t>Mutation PTEN</t>
+  </si>
+  <si>
+    <t>Mutation RBM10</t>
+  </si>
+  <si>
+    <t>Mutation SETD2</t>
+  </si>
+  <si>
+    <t>Mutation TP53</t>
+  </si>
+  <si>
+    <t>Pattern NF1_and_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
+  </si>
+  <si>
+    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
+  </si>
+  <si>
+    <t>Pattern OR_CDK4_TP53</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR</t>
+  </si>
+  <si>
+    <t>Pattern OR_EGFR_KRAS</t>
+  </si>
+  <si>
     <t>Pattern OR_EGFR_SMARCA4</t>
   </si>
   <si>
-    <t>Mutation KRAS</t>
-  </si>
-  <si>
-    <t>Mutation ALK</t>
-  </si>
-  <si>
-    <t>Mutation KEAP1</t>
-  </si>
-  <si>
-    <t>Mutation EGFR</t>
-  </si>
-  <si>
-    <t>Mutation MET</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Amplification MDM2</t>
-  </si>
-  <si>
-    <t>Amplification CDK4</t>
-  </si>
-  <si>
-    <t>Pattern XOR_MET</t>
-  </si>
-  <si>
-    <t>Mutation MTOR</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Amplification CCND1</t>
-  </si>
-  <si>
-    <t>Amplification MET</t>
-  </si>
-  <si>
-    <t>Mutation CCNE1</t>
-  </si>
-  <si>
-    <t>Mutation TSC2</t>
-  </si>
-  <si>
-    <t>Mutation STK11</t>
-  </si>
-  <si>
-    <t>Amplification EGFR</t>
-  </si>
-  <si>
-    <t>Mutation RB1</t>
-  </si>
-  <si>
-    <t>Mutation RET</t>
-  </si>
-  <si>
-    <t>Mutation SMARCA4</t>
-  </si>
-  <si>
-    <t>Amplification KRAS</t>
-  </si>
-  <si>
-    <t>Mutation ATM</t>
-  </si>
-  <si>
-    <t>Mutation ROS1</t>
-  </si>
-  <si>
-    <t>Amplification BRAF</t>
-  </si>
-  <si>
-    <t>Amplification CCNE1</t>
-  </si>
-  <si>
-    <t>Amplification RIT1</t>
-  </si>
-  <si>
-    <t>Deletion ATM</t>
-  </si>
-  <si>
-    <t>Mutation ARID1A</t>
-  </si>
-  <si>
-    <t>Mutation ARID1B</t>
-  </si>
-  <si>
-    <t>Mutation ARID2</t>
-  </si>
-  <si>
-    <t>Mutation BRAF</t>
-  </si>
-  <si>
-    <t>Mutation CDKN2A</t>
-  </si>
-  <si>
-    <t>Mutation ERBB2</t>
-  </si>
-  <si>
-    <t>Mutation NF1</t>
-  </si>
-  <si>
-    <t>Mutation PIK3CA</t>
-  </si>
-  <si>
-    <t>Mutation PTEN</t>
-  </si>
-  <si>
-    <t>Mutation RBM10</t>
-  </si>
-  <si>
-    <t>Mutation SETD2</t>
-  </si>
-  <si>
-    <t>Mutation TP53</t>
-  </si>
-  <si>
-    <t>Pattern NF1_and_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1</t>
-  </si>
-  <si>
-    <t>Pattern OR_BRAF_EGFR_KRAS_NF1_RIT1</t>
-  </si>
-  <si>
-    <t>Pattern OR_CDK4_TP53</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR</t>
-  </si>
-  <si>
-    <t>Pattern OR_EGFR_KRAS</t>
-  </si>
-  <si>
     <t>Pattern OR_EGFR_STK11</t>
   </si>
   <si>
     <t>Pattern OR_KRAS</t>
   </si>
   <si>
-    <t>Pattern OR_KRAS_EGFR_NF1_BRAF_MET</t>
-  </si>
-  <si>
     <t>Pattern OR_KRAS_TP53</t>
   </si>
   <si>
@@ -450,6 +450,9 @@
     <t>capri_aic.SD.POSTERR</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>61</t>
   </si>
   <si>
@@ -468,10 +471,13 @@
     <t>66</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
   </si>
 </sst>
 </file>
@@ -575,22 +581,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00105828080128529</v>
+        <v>6.82507928184255E-39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.76289867820922E-42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>94.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -619,34 +625,34 @@
         <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0010108390316258</v>
+        <v>5.54308041856931E-31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.42781196460221E-33</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0375937967680202</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -660,37 +666,37 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00102257159400898</v>
+        <v>1.33780318427279E-39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00213336241108807</v>
+        <v>6.25611765495683E-41</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00673824509440948</v>
+        <v>9.19673290886873E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.072</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -704,40 +710,40 @@
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00103438931083437</v>
+        <v>6.31572295233876E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00102257159400898</v>
+        <v>1.43031330210063E-37</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00491923526845387</v>
+        <v>2.74980749609343E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07066666666666667</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006440611887195307</v>
+        <v>0.01325905234682338</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>0.0866666666666667</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.0201230780847498</v>
       </c>
     </row>
     <row r="6">
@@ -751,22 +757,22 @@
         <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" t="n">
         <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00351779937968047</v>
+        <v>2.33294415439561E-41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00138921505504952</v>
+        <v>3.79855575686229E-44</v>
       </c>
       <c r="H6" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>38.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
@@ -789,43 +795,43 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.012616400883341</v>
       </c>
       <c r="G7" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.83168605199802E-32</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.0344681177578632</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.13866666666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.014332902663641869</v>
+        <v>0.016865480854231358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.076</v>
+        <v>0.142666666666667</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0109769680313142</v>
+        <v>0.0154600241163787</v>
       </c>
     </row>
     <row r="8">
@@ -833,37 +839,37 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0410709889037178</v>
+        <v>1.41442672707694E-35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00200033415174113</v>
+        <v>1.06286074564602E-28</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.0608369208214857</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08</v>
+        <v>0.072</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M8" t="n">
         <v>0.08</v>
@@ -877,43 +883,43 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.134427088373203</v>
+        <v>1.17895867599047E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00105828080128529</v>
+        <v>5.92166443379389E-27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09866666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L9" t="n">
-        <v>0.012881223774390611</v>
+        <v>0.00888888888888889</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.0693333333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0</v>
+        <v>0.0105174751699549</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +927,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -933,16 +939,16 @@
         <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00105828080128529</v>
+        <v>2.47367259931411E-41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.16356224637222E-46</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0.0302764582062286</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
@@ -965,43 +971,43 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n">
         <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0232135310588704</v>
+        <v>1.35566218971308E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0125130804622741</v>
+        <v>1.57810416551996E-22</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06266666666666668</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01412466540628507</v>
+        <v>0.005621826951410454</v>
       </c>
       <c r="M11" t="n">
-        <v>0.056</v>
+        <v>0.076</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.0166888740937943</v>
       </c>
     </row>
     <row r="12">
@@ -1009,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -1021,16 +1027,16 @@
         <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00123870226618732</v>
+        <v>3.01296898025011E-38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.97200851004072E-31</v>
       </c>
       <c r="H12" t="n">
         <v>0.00177711958533876</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
@@ -1053,43 +1059,43 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>8.04787290675244E-20</v>
       </c>
       <c r="G13" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.30951587802545E-23</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.0413451807972356</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="J13" t="n">
         <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.14266666666666666</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01264911064067352</v>
+        <v>0.009322745317068013</v>
       </c>
       <c r="M13" t="n">
-        <v>0.146666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N13" t="n">
-        <v>0.016629588385662</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1103,37 +1109,37 @@
         <v>97</v>
       </c>
       <c r="D14" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="E14" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.324263384761535</v>
+        <v>2.52430541540745E-41</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0148311294556886</v>
+        <v>2.66982176309836E-37</v>
       </c>
       <c r="H14" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.00318894236702456</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="J14" t="n">
         <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L14" t="n">
-        <v>0.016629588385661958</v>
+        <v>0.0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.104</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0122524877796357</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1141,43 +1147,43 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="E15" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00152971453112426</v>
+        <v>3.01207031958599E-7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00116550116550117</v>
+        <v>3.4735109410817E-33</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07066666666666667</v>
+        <v>0.09466666666666668</v>
       </c>
       <c r="L15" t="n">
-        <v>0.006440611887195307</v>
+        <v>0.0042163702135578395</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08</v>
+        <v>0.096</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="16">
@@ -1185,10 +1191,10 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D16" t="n">
         <v>6.0</v>
@@ -1197,31 +1203,31 @@
         <v>4.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0684404828872903</v>
+        <v>3.60768724278505E-12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0324675324675325</v>
+        <v>1.17022645077461E-26</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0105146242132543</v>
+        <v>0.0300999629766753</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="J16" t="n">
         <v>100.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.06266666666666668</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01412466540628507</v>
+        <v>0.009322745317068013</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0586666666666667</v>
+        <v>0.064</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00932274531706801</v>
+        <v>0.0105174751699549</v>
       </c>
     </row>
     <row r="17">
@@ -1229,43 +1235,43 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="E17" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F17" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>0.00120542757032372</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0446750736976944</v>
+        <v>3.82209991778412E-36</v>
       </c>
       <c r="H17" t="n">
-        <v>0.100037023324695</v>
+        <v>0.00911416915661561</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="J17" t="n">
         <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.10533333333333333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0</v>
+        <v>0.013259052346823374</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.113333333333333</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0</v>
+        <v>0.0180534186769688</v>
       </c>
     </row>
     <row r="18">
@@ -1273,43 +1279,43 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
         <v>99</v>
       </c>
-      <c r="D18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" t="e">
-        <v>#NUM!</v>
+      <c r="D18" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2.79603437757158E-41</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.18392387598992E-47</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.04</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L18" t="n">
         <v>0.0</v>
       </c>
-      <c r="M18" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" t="e">
-        <v>#NUM!</v>
+      <c r="M18" t="n">
+        <v>0.106666666666667</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1350,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L19" t="n">
         <v>0.0</v>
@@ -1364,7 +1370,7 @@
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D20" t="e">
         <v>#NUM!</v>
@@ -1388,7 +1394,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K20" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
@@ -1408,7 +1414,7 @@
         <v>86</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21" t="e">
         <v>#NUM!</v>
@@ -1432,7 +1438,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K21" t="n">
-        <v>0.16</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L21" t="n">
         <v>0.0</v>
@@ -1452,7 +1458,7 @@
         <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22" t="e">
         <v>#NUM!</v>
@@ -1476,7 +1482,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K22" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
@@ -1496,7 +1502,7 @@
         <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="D23" t="e">
         <v>#NUM!</v>
@@ -1520,7 +1526,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K23" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.04</v>
       </c>
       <c r="L23" t="n">
         <v>0.0</v>
@@ -1564,7 +1570,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K24" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
@@ -1584,7 +1590,7 @@
         <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="D25" t="e">
         <v>#NUM!</v>
@@ -1608,7 +1614,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
@@ -1628,7 +1634,7 @@
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D26" t="e">
         <v>#NUM!</v>
@@ -1652,7 +1658,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K26" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L26" t="n">
         <v>0.0</v>
@@ -1672,7 +1678,7 @@
         <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D27" t="e">
         <v>#NUM!</v>
@@ -1696,7 +1702,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
@@ -1716,7 +1722,7 @@
         <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D28" t="e">
         <v>#NUM!</v>
@@ -1740,7 +1746,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K28" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L28" t="n">
         <v>0.0</v>
@@ -1784,7 +1790,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K29" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L29" t="n">
         <v>0.0</v>
@@ -1804,7 +1810,7 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D30" t="e">
         <v>#NUM!</v>
@@ -1828,7 +1834,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K30" t="n">
-        <v>0.14666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
@@ -1848,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="D31" t="e">
         <v>#NUM!</v>
@@ -1872,7 +1878,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K31" t="n">
-        <v>0.08</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
@@ -1892,7 +1898,7 @@
         <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D32" t="e">
         <v>#NUM!</v>
@@ -1916,7 +1922,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K32" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L32" t="n">
         <v>0.0</v>
@@ -1960,7 +1966,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K33" t="n">
-        <v>0.2</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L33" t="n">
         <v>0.0</v>
@@ -1980,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D34" t="e">
         <v>#NUM!</v>
@@ -2004,7 +2010,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K34" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="L34" t="n">
         <v>0.0</v>
@@ -2024,7 +2030,7 @@
         <v>86</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D35" t="e">
         <v>#NUM!</v>
@@ -2048,7 +2054,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K35" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
@@ -2092,7 +2098,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -2136,7 +2142,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -2180,7 +2186,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -2224,7 +2230,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -2268,7 +2274,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.37333333333333335</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -2312,7 +2318,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.12</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -2356,7 +2362,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -2508,7 +2514,7 @@
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -2640,7 +2646,7 @@
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -2684,7 +2690,7 @@
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -2728,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -2772,7 +2778,7 @@
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -2816,7 +2822,7 @@
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -3168,7 +3174,7 @@
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -3261,7 +3267,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -3270,22 +3276,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>16.0</v>
+        <v>10.0</v>
       </c>
       <c r="E2" t="n">
         <v>3.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00105828080128529</v>
+        <v>6.82507928184255E-39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.76289867820922E-42</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00673824509440949</v>
+        <v>0.00177711958533876</v>
       </c>
       <c r="I2" t="n">
-        <v>80.0</v>
+        <v>94.0</v>
       </c>
       <c r="J2" t="n">
         <v>100.0</v>
@@ -3305,7 +3311,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -3314,34 +3320,34 @@
         <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0</v>
+        <v>11.0</v>
       </c>
       <c r="E3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0010108390316258</v>
+        <v>5.54308041856931E-31</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00103438931083437</v>
+        <v>9.42781196460221E-33</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00318894236702456</v>
+        <v>0.0375937967680202</v>
       </c>
       <c r="I3" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J3" t="n">
         <v>100.0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.08</v>
       </c>
       <c r="L3" t="n">
         <v>0.0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N3" t="n">
         <v>0.0</v>
@@ -3349,43 +3355,43 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="E4" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00102257159400898</v>
+        <v>1.33780318427279E-39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00213336241108807</v>
+        <v>6.25611765495683E-41</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00673824509440948</v>
+        <v>9.19673290886873E-4</v>
       </c>
       <c r="I4" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J4" t="n">
         <v>100.0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.072</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="N4" t="n">
         <v>0.0</v>
@@ -3393,51 +3399,51 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00103438931083437</v>
+        <v>6.31572295233876E-17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00102257159400898</v>
+        <v>1.43031330210063E-37</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00491923526845387</v>
+        <v>2.74980749609343E-4</v>
       </c>
       <c r="I5" t="n">
-        <v>80.0</v>
+        <v>49.0</v>
       </c>
       <c r="J5" t="n">
         <v>100.0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.07066666666666667</v>
+        <v>0.07866666666666666</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006440611887195307</v>
+        <v>0.01325905234682338</v>
       </c>
       <c r="M5" t="n">
-        <v>0.08</v>
+        <v>0.0693333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0</v>
+        <v>0.00843274042711568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -3446,22 +3452,22 @@
         <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E6" t="n">
         <v>3.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00351779937968047</v>
+        <v>2.33294415439561E-41</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00138921505504952</v>
+        <v>3.79855575686229E-44</v>
       </c>
       <c r="H6" t="n">
-        <v>1.72775515241269E-4</v>
+        <v>0.0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.0</v>
+        <v>38.0</v>
       </c>
       <c r="J6" t="n">
         <v>100.0</v>
@@ -3481,84 +3487,84 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
       </c>
       <c r="D7" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="E7" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0468811053418156</v>
+        <v>0.012616400883341</v>
       </c>
       <c r="G7" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>5.83168605199802E-32</v>
       </c>
       <c r="H7" t="n">
-        <v>1.39112680112101E-4</v>
+        <v>0.0344681177578632</v>
       </c>
       <c r="I7" t="n">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="J7" t="n">
         <v>100.0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07466666666666667</v>
+        <v>0.13866666666666666</v>
       </c>
       <c r="L7" t="n">
-        <v>0.014332902663641869</v>
+        <v>0.016865480854231358</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0773333333333333</v>
+        <v>0.133333333333333</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0137706074531819</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>13.0</v>
       </c>
       <c r="E8" t="n">
         <v>6.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0410709889037178</v>
+        <v>1.41442672707694E-35</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00200033415174113</v>
+        <v>1.06286074564602E-28</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0204733771008129</v>
+        <v>0.0608369208214857</v>
       </c>
       <c r="I8" t="n">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="J8" t="n">
         <v>100.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08</v>
+        <v>0.072</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0.006885303726590965</v>
       </c>
       <c r="M8" t="n">
         <v>0.08</v>
@@ -3569,54 +3575,54 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D9" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="E9" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.134427088373203</v>
+        <v>1.17895867599047E-5</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00105828080128529</v>
+        <v>5.92166443379389E-27</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0141102321692713</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I9" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J9" t="n">
         <v>100.0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09866666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="L9" t="n">
-        <v>0.012881223774390611</v>
+        <v>0.00888888888888889</v>
       </c>
       <c r="M9" t="n">
-        <v>0.096</v>
+        <v>0.0733333333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00843274042711568</v>
+        <v>0.012957670877434</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
         <v>93</v>
@@ -3628,16 +3634,16 @@
         <v>6.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00105828080128529</v>
+        <v>2.47367259931411E-41</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00138921505504952</v>
+        <v>2.16356224637222E-46</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0.0302764582062286</v>
       </c>
       <c r="I10" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J10" t="n">
         <v>100.0</v>
@@ -3657,54 +3663,54 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
         <v>94</v>
       </c>
       <c r="D11" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E11" t="n">
         <v>4.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0232135310588704</v>
+        <v>1.35566218971308E-5</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0125130804622741</v>
+        <v>1.57810416551996E-22</v>
       </c>
       <c r="H11" t="n">
-        <v>2.9618659755646E-4</v>
+        <v>0.0204492163396273</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="J11" t="n">
         <v>100.0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06266666666666668</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01412466540628507</v>
+        <v>0.005621826951410454</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.072</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0</v>
+        <v>0.00932274531706801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
         <v>95</v>
@@ -3716,16 +3722,16 @@
         <v>3.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00123870226618732</v>
+        <v>3.01296898025011E-38</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00103438931083437</v>
+        <v>1.97200851004072E-31</v>
       </c>
       <c r="H12" t="n">
         <v>0.00177711958533876</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="J12" t="n">
         <v>100.0</v>
@@ -3745,160 +3751,160 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>47.0</v>
+        <v>7.0</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>8.04787290675244E-20</v>
       </c>
       <c r="G13" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>5.30951587802545E-23</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0.0413451807972356</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.04</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0</v>
+        <v>0.009322745317068013</v>
       </c>
       <c r="M13" t="n">
-        <v>0.04</v>
+        <v>0.0613333333333333</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0</v>
+        <v>0.0143329026636419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0598910393226066</v>
+        <v>3.01207031958599E-7</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00246101783766158</v>
+        <v>3.4735109410817E-33</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0063680118474639</v>
+        <v>0.00304389315789462</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.04</v>
+        <v>0.09466666666666668</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0</v>
+        <v>0.0042163702135578395</v>
       </c>
       <c r="M14" t="n">
-        <v>0.04</v>
+        <v>0.104</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0</v>
+        <v>0.0175541490294502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="E15" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5</v>
+        <v>0.00120542757032372</v>
       </c>
       <c r="G15" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>3.82209991778412E-36</v>
       </c>
       <c r="H15" t="n">
-        <v>1.62712124846843E-4</v>
+        <v>0.00911416915661561</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="J15" t="n">
         <v>100.0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.14266666666666666</v>
+        <v>0.10533333333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01264911064067352</v>
+        <v>0.013259052346823374</v>
       </c>
       <c r="M15" t="n">
-        <v>0.146666666666667</v>
+        <v>0.101333333333333</v>
       </c>
       <c r="N15" t="n">
-        <v>0.016629588385662</v>
+        <v>0.0128812237743906</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D16" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00196036862130397</v>
+        <v>5.29309643640131E-5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.91375291375291E-4</v>
+        <v>1.6329055203531E-30</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0129183592235879</v>
+        <v>5.92373195112921E-5</v>
       </c>
       <c r="I16" t="n">
         <v>0.0</v>
@@ -3907,39 +3913,39 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.09866666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.012881223774390611</v>
+        <v>0.0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0933333333333333</v>
+        <v>0.0586666666666667</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0</v>
+        <v>0.00932274531706801</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D17" t="n">
-        <v>47.0</v>
+        <v>55.0</v>
       </c>
       <c r="E17" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00102257159400898</v>
+        <v>2.79603437757158E-41</v>
       </c>
       <c r="G17" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>9.18392387598992E-47</v>
       </c>
       <c r="H17" t="n">
         <v>0.0</v>
@@ -3948,16 +3954,16 @@
         <v>0.0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L17" t="n">
         <v>0.0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.106666666666667</v>
       </c>
       <c r="N17" t="n">
         <v>0.0</v>
@@ -3971,22 +3977,22 @@
         <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="D18" t="n">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00128063972744154</v>
+        <v>3.51318458248449E-38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0325404793288958</v>
+        <v>1.85380710860438E-35</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0450944094779712</v>
+        <v>0.00400919000689152</v>
       </c>
       <c r="I18" t="n">
         <v>0.0</v>
@@ -3995,13 +4001,13 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.09466666666666668</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0</v>
+        <v>0.0042163702135578395</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.0933333333333333</v>
       </c>
       <c r="N18" t="n">
         <v>0.0</v>
@@ -4009,28 +4015,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D19" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="E19" t="n">
         <v>4.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0010108390316258</v>
+        <v>3.70816522344965E-41</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0325404793288958</v>
+        <v>1.33318914728441E-24</v>
       </c>
       <c r="H19" t="n">
-        <v>0.113143280266568</v>
+        <v>0.0286807355300506</v>
       </c>
       <c r="I19" t="n">
         <v>0.0</v>
@@ -4053,28 +4059,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20" t="n">
-        <v>52.0</v>
+        <v>9.0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00103438931083437</v>
+        <v>8.08600739659678E-31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00138921505504952</v>
+        <v>7.92752407417105E-29</v>
       </c>
       <c r="H20" t="n">
-        <v>0.308404294705665</v>
+        <v>0.00466493891151425</v>
       </c>
       <c r="I20" t="n">
         <v>0.0</v>
@@ -4083,13 +4089,13 @@
         <v>0.0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L20" t="n">
         <v>0.0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N20" t="n">
         <v>0.0</v>
@@ -4097,72 +4103,72 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D21" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="E21" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.324263384761535</v>
+        <v>8.63121173470797E-34</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0148311294556886</v>
+        <v>1.17849233127481E-26</v>
       </c>
       <c r="H21" t="n">
-        <v>1.76823001441948E-4</v>
+        <v>0.083598667160311</v>
       </c>
       <c r="I21" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L21" t="n">
-        <v>0.016629588385661958</v>
+        <v>0.0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.110666666666667</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0141246654062851</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="D22" t="n">
-        <v>47.0</v>
+        <v>18.0</v>
       </c>
       <c r="E22" t="n">
-        <v>15.0</v>
+        <v>4.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00105828080128529</v>
+        <v>2.59623209395204E-41</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0034965034965035</v>
+        <v>7.61440842378008E-20</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0213969323599224</v>
+        <v>0.241688263606071</v>
       </c>
       <c r="I22" t="n">
         <v>0.0</v>
@@ -4171,13 +4177,13 @@
         <v>0.0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L22" t="n">
         <v>0.0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.2</v>
+        <v>0.0533333333333333</v>
       </c>
       <c r="N22" t="n">
         <v>0.0</v>
@@ -4185,43 +4191,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D23" t="n">
-        <v>13.0</v>
+        <v>52.0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00152971453112426</v>
+        <v>2.04835819910229E-41</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00116550116550117</v>
+        <v>2.86650925425048E-45</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0267470055430696</v>
+        <v>0.0</v>
       </c>
       <c r="I23" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.07066666666666667</v>
+        <v>0.04</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006440611887195307</v>
+        <v>0.0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N23" t="n">
         <v>0.0</v>
@@ -4229,28 +4235,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="E24" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.196182248573794</v>
+        <v>3.53266005848971E-35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0147413977079652</v>
+        <v>0.00352766925814595</v>
       </c>
       <c r="H24" t="n">
-        <v>0.012501542638529</v>
+        <v>0.153292903167493</v>
       </c>
       <c r="I24" t="n">
         <v>0.0</v>
@@ -4259,13 +4265,13 @@
         <v>0.0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.04</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L24" t="n">
         <v>0.0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.04</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N24" t="n">
         <v>0.0</v>
@@ -4273,28 +4279,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C25" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D25" t="n">
-        <v>13.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0010108390316258</v>
+        <v>2.0112855070824E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0131118881118881</v>
+        <v>6.97324278189887E-6</v>
       </c>
       <c r="H25" t="n">
-        <v>0.117860051832655</v>
+        <v>0.0483140481789913</v>
       </c>
       <c r="I25" t="n">
         <v>0.0</v>
@@ -4303,13 +4309,13 @@
         <v>0.0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.04</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L25" t="n">
         <v>0.0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04</v>
+        <v>0.0666666666666667</v>
       </c>
       <c r="N25" t="n">
         <v>0.0</v>
@@ -4317,28 +4323,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D26" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E26" t="n">
         <v>6.0</v>
       </c>
-      <c r="E26" t="n">
-        <v>5.0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0.273566479988148</v>
+        <v>2.62139443954638E-41</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0235786594350109</v>
+        <v>2.00515105931643E-40</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0697806485960066</v>
+        <v>0.00235906367490392</v>
       </c>
       <c r="I26" t="n">
         <v>0.0</v>
@@ -4347,13 +4353,13 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10533333333333333</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0</v>
+        <v>0.013259052346823374</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.08</v>
       </c>
       <c r="N26" t="n">
         <v>0.0</v>
@@ -4361,28 +4367,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="E27" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0160193159689903</v>
+        <v>6.40477481792112E-12</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0316678519127859</v>
+        <v>1.01563876790845E-26</v>
       </c>
       <c r="H27" t="n">
-        <v>0.179588154621919</v>
+        <v>0.0881936617151041</v>
       </c>
       <c r="I27" t="n">
         <v>0.0</v>
@@ -4391,13 +4397,13 @@
         <v>0.0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L27" t="n">
         <v>0.0</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0666666666666667</v>
+        <v>0.106666666666667</v>
       </c>
       <c r="N27" t="n">
         <v>0.0</v>
@@ -4405,28 +4411,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="E28" t="n">
         <v>4.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00103438931083437</v>
+        <v>2.38741074655754E-41</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0235786594350109</v>
+        <v>9.14656348591853E-37</v>
       </c>
       <c r="H28" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0344070097494755</v>
       </c>
       <c r="I28" t="n">
         <v>0.0</v>
@@ -4435,10 +4441,10 @@
         <v>0.0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.06266666666666668</v>
+        <v>0.08</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01412466540628507</v>
+        <v>0.00888888888888889</v>
       </c>
       <c r="M28" t="n">
         <v>0.0533333333333333</v>
@@ -4449,28 +4455,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D29" t="n">
-        <v>10.0</v>
+        <v>47.0</v>
       </c>
       <c r="E29" t="n">
-        <v>4.0</v>
+        <v>15.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00517408124222496</v>
+        <v>3.00106404136297E-41</v>
       </c>
       <c r="G29" t="n">
-        <v>0.012593280988826</v>
+        <v>9.37208135814989E-33</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0364309514994447</v>
+        <v>0.0278478672864182</v>
       </c>
       <c r="I29" t="n">
         <v>0.0</v>
@@ -4479,13 +4485,13 @@
         <v>0.0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.06266666666666668</v>
+        <v>0.2</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01412466540628507</v>
+        <v>0.0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="N29" t="n">
         <v>0.0</v>
@@ -4493,43 +4499,43 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D30" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>1.35924886880417E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0446750736976944</v>
+        <v>8.70484478436003E-7</v>
       </c>
       <c r="H30" t="n">
-        <v>0.100037023324695</v>
+        <v>0.0063680118474639</v>
       </c>
       <c r="I30" t="n">
         <v>0.0</v>
       </c>
       <c r="J30" t="n">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L30" t="n">
         <v>0.0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N30" t="n">
         <v>0.0</v>
@@ -4537,28 +4543,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="D31" t="n">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.53448157979974E-4</v>
+        <v>2.26490719952113E-41</v>
       </c>
       <c r="G31" t="n">
-        <v>5.28787541966261E-4</v>
+        <v>0.00674324646456823</v>
       </c>
       <c r="H31" t="n">
-        <v>0.224805627545354</v>
+        <v>0.610692336171788</v>
       </c>
       <c r="I31" t="n">
         <v>0.0</v>
@@ -4567,13 +4573,13 @@
         <v>0.0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L31" t="n">
         <v>0.0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0533333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="N31" t="n">
         <v>0.0</v>
@@ -4581,189 +4587,189 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J32" t="e">
-        <v>#NUM!</v>
+        <v>96</v>
+      </c>
+      <c r="D32" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2.4006843113373E-34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.24240592419943E-26</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.083598667160311</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M32" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N32" t="e">
-        <v>#NUM!</v>
+        <v>0.009322745317068013</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J33" t="e">
-        <v>#NUM!</v>
+        <v>96</v>
+      </c>
+      <c r="D33" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.30352163537636E-41</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.41266038848342E-36</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0478341355053683</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05866666666666667</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N33" t="e">
-        <v>#NUM!</v>
+        <v>0.009322745317068013</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J34" t="e">
-        <v>#NUM!</v>
+        <v>94</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.56812347458462E-41</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.41905178895125E-35</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0286807355300506</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.16</v>
+        <v>0.07733333333333334</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N34" t="e">
-        <v>#NUM!</v>
+        <v>0.005621826951410454</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0533333333333333</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J35" t="e">
-        <v>#NUM!</v>
+        <v>129</v>
+      </c>
+      <c r="D35" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.58816576560339E-8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.62940147414573E-28</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.121025938577863</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="L35" t="n">
         <v>0.0</v>
       </c>
-      <c r="M35" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N35" t="e">
-        <v>#NUM!</v>
+      <c r="M35" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D36" t="e">
         <v>#NUM!</v>
@@ -4787,7 +4793,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K36" t="n">
-        <v>0.21333333333333335</v>
+        <v>0.04</v>
       </c>
       <c r="L36" t="n">
         <v>0.0</v>
@@ -4801,13 +4807,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
         <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D37" t="e">
         <v>#NUM!</v>
@@ -4831,7 +4837,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K37" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L37" t="n">
         <v>0.0</v>
@@ -4845,13 +4851,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
         <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D38" t="e">
         <v>#NUM!</v>
@@ -4875,7 +4881,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K38" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L38" t="n">
         <v>0.0</v>
@@ -4889,13 +4895,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D39" t="e">
         <v>#NUM!</v>
@@ -4919,7 +4925,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K39" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.16</v>
       </c>
       <c r="L39" t="n">
         <v>0.0</v>
@@ -4933,13 +4939,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D40" t="e">
         <v>#NUM!</v>
@@ -4963,7 +4969,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K40" t="n">
-        <v>0.05333333333333334</v>
+        <v>0.04</v>
       </c>
       <c r="L40" t="n">
         <v>0.0</v>
@@ -4977,13 +4983,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B41" t="s">
         <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" t="e">
         <v>#NUM!</v>
@@ -5007,7 +5013,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K41" t="n">
-        <v>0.14666666666666667</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L41" t="n">
         <v>0.0</v>
@@ -5021,13 +5027,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
         <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="D42" t="e">
         <v>#NUM!</v>
@@ -5051,7 +5057,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K42" t="n">
-        <v>0.08</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>0.0</v>
@@ -5065,13 +5071,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="D43" t="e">
         <v>#NUM!</v>
@@ -5095,7 +5101,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K43" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="L43" t="n">
         <v>0.0</v>
@@ -5115,7 +5121,7 @@
         <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D44" t="e">
         <v>#NUM!</v>
@@ -5139,7 +5145,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K44" t="n">
-        <v>0.12</v>
+        <v>0.14666666666666667</v>
       </c>
       <c r="L44" t="n">
         <v>0.0</v>
@@ -5153,7 +5159,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>86</v>
@@ -5183,7 +5189,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="L45" t="n">
         <v>0.0</v>
@@ -5197,13 +5203,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
         <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="D46" t="e">
         <v>#NUM!</v>
@@ -5227,7 +5233,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K46" t="n">
-        <v>0.08</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L46" t="n">
         <v>0.0</v>
@@ -5241,13 +5247,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
         <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D47" t="e">
         <v>#NUM!</v>
@@ -5271,7 +5277,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K47" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.12</v>
       </c>
       <c r="L47" t="n">
         <v>0.0</v>
@@ -5285,13 +5291,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" t="e">
         <v>#NUM!</v>
@@ -5315,7 +5321,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K48" t="n">
-        <v>0.37333333333333335</v>
+        <v>0.2</v>
       </c>
       <c r="L48" t="n">
         <v>0.0</v>
@@ -5329,13 +5335,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D49" t="e">
         <v>#NUM!</v>
@@ -5359,7 +5365,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K49" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="L49" t="n">
         <v>0.0</v>
@@ -5373,13 +5379,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D50" t="e">
         <v>#NUM!</v>
@@ -5403,7 +5409,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K50" t="n">
-        <v>0.13333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L50" t="n">
         <v>0.0</v>
@@ -5417,13 +5423,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D51" t="e">
         <v>#NUM!</v>
@@ -5447,7 +5453,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K51" t="n">
-        <v>0.36</v>
+        <v>0.10666666666666667</v>
       </c>
       <c r="L51" t="n">
         <v>0.0</v>
@@ -5461,13 +5467,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
         <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D52" t="e">
         <v>#NUM!</v>
@@ -5491,7 +5497,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K52" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.37333333333333335</v>
       </c>
       <c r="L52" t="n">
         <v>0.0</v>
@@ -5505,13 +5511,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
       </c>
       <c r="C53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D53" t="e">
         <v>#NUM!</v>
@@ -5535,7 +5541,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K53" t="n">
-        <v>0.29333333333333333</v>
+        <v>0.12</v>
       </c>
       <c r="L53" t="n">
         <v>0.0</v>
@@ -5549,13 +5555,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D54" t="e">
         <v>#NUM!</v>
@@ -5579,7 +5585,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K54" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.36</v>
       </c>
       <c r="L54" t="n">
         <v>0.0</v>
@@ -5593,13 +5599,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
         <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D55" t="e">
         <v>#NUM!</v>
@@ -5623,7 +5629,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K55" t="n">
-        <v>0.18666666666666668</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L55" t="n">
         <v>0.0</v>
@@ -5637,13 +5643,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
         <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D56" t="e">
         <v>#NUM!</v>
@@ -5667,7 +5673,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K56" t="n">
-        <v>0.41333333333333333</v>
+        <v>0.29333333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>0.0</v>
@@ -5681,13 +5687,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
         <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D57" t="e">
         <v>#NUM!</v>
@@ -5711,7 +5717,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K57" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L57" t="n">
         <v>0.0</v>
@@ -5725,13 +5731,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="D58" t="e">
         <v>#NUM!</v>
@@ -5755,7 +5761,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K58" t="n">
-        <v>0.22666666666666666</v>
+        <v>0.18666666666666668</v>
       </c>
       <c r="L58" t="n">
         <v>0.0</v>
@@ -5769,13 +5775,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
         <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D59" t="e">
         <v>#NUM!</v>
@@ -5799,7 +5805,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K59" t="n">
-        <v>0.24</v>
+        <v>0.41333333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>0.0</v>
@@ -5813,13 +5819,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D60" t="e">
         <v>#NUM!</v>
@@ -5843,7 +5849,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K60" t="n">
-        <v>0.25333333333333335</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="L60" t="n">
         <v>0.0</v>
@@ -5857,13 +5863,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D61" t="e">
         <v>#NUM!</v>
@@ -5887,7 +5893,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K61" t="n">
-        <v>0.26666666666666666</v>
+        <v>0.22666666666666666</v>
       </c>
       <c r="L61" t="n">
         <v>0.0</v>
@@ -5901,13 +5907,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D62" t="e">
         <v>#NUM!</v>
@@ -5931,7 +5937,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K62" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="L62" t="n">
         <v>0.0</v>
@@ -5951,7 +5957,7 @@
         <v>86</v>
       </c>
       <c r="C63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" t="e">
         <v>#NUM!</v>
@@ -5975,7 +5981,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K63" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="L63" t="n">
         <v>0.0</v>
@@ -5995,7 +6001,7 @@
         <v>86</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="D64" t="e">
         <v>#NUM!</v>
@@ -6019,7 +6025,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K64" t="n">
-        <v>0.30666666666666664</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>0.0</v>
@@ -6039,7 +6045,7 @@
         <v>86</v>
       </c>
       <c r="C65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D65" t="e">
         <v>#NUM!</v>
@@ -6063,7 +6069,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3466666666666667</v>
+        <v>0.28</v>
       </c>
       <c r="L65" t="n">
         <v>0.0</v>
@@ -6083,7 +6089,7 @@
         <v>86</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D66" t="e">
         <v>#NUM!</v>
@@ -6107,7 +6113,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K66" t="n">
-        <v>0.12</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L66" t="n">
         <v>0.0</v>
@@ -6127,7 +6133,7 @@
         <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D67" t="e">
         <v>#NUM!</v>
@@ -6151,7 +6157,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K67" t="n">
-        <v>0.10666666666666667</v>
+        <v>0.30666666666666664</v>
       </c>
       <c r="L67" t="n">
         <v>0.0</v>
@@ -6171,7 +6177,7 @@
         <v>86</v>
       </c>
       <c r="C68" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D68" t="e">
         <v>#NUM!</v>
@@ -6195,7 +6201,7 @@
         <v>#NUM!</v>
       </c>
       <c r="K68" t="n">
-        <v>0.38666666666666666</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="L68" t="n">
         <v>0.0</v>
@@ -6215,7 +6221,7 @@
         <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D69" t="e">
         <v>#NUM!</v>
@@ -6239,15 +6245,103 @@
         <v>#NUM!</v>
       </c>
       <c r="K69" t="n">
+        <v>0.10666666666666667</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N69" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>153</v>
+      </c>
+      <c r="B70" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.38666666666666666</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M70" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N70" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="H71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="I71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="J71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="K71" t="n">
         <v>0.17333333333333334</v>
       </c>
-      <c r="L69" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M69" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N69" t="e">
+      <c r="L71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M71" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N71" t="e">
         <v>#NUM!</v>
       </c>
     </row>
